--- a/acceptance_tests/2025-11-06-validation_matrix_1A.xlsx
+++ b/acceptance_tests/2025-11-06-validation_matrix_1A.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
   <si>
     <t xml:space="preserve">Version</t>
   </si>
@@ -162,37 +162,6 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">20251105_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">DMA_001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">_log.txt</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">TR-DMA-002</t>
   </si>
   <si>
@@ -221,44 +190,8 @@
 Confirm all logs and images have been saved.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">20251105_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">DMA_001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">_output_frame_1.png
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">20251105_DMA_001_output_frame_2.png
+    <t xml:space="preserve">20251105_DMA_001_output_frame_1.png
+20251105_DMA_001_output_frame_2.png
 20251105_DMA_001_output_frame_3.png
 20251105_DMA_001_output_frame_4.png
 20251105_DMA_001_output_frame_5.png
@@ -267,7 +200,6 @@
 20251105_DMA_001_output_frame_8.png
 20251105_DMA_001_output_frame_9.png
 20251105_DMA_001_output_frame_10.png</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -279,7 +211,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,12 +248,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -385,7 +311,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -436,10 +362,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -697,16 +619,12 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="1" width="14.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="51.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="47.88"/>
   </cols>
@@ -854,10 +772,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="37.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="10.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="10.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1051,7 +969,7 @@
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="13"/>
+      <c r="E14" s="11"/>
       <c r="F14" s="12"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -1070,23 +988,9 @@
     </row>
     <row r="16" customFormat="false" ht="117.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="9"/>
-      <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
-      <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
-      <c r="G16" s="0"/>
-      <c r="H16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="117.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="9"/>
-      <c r="B17" s="0"/>
-      <c r="C17" s="0"/>
-      <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
-      <c r="F17" s="0"/>
-      <c r="G17" s="0"/>
-      <c r="H17" s="0"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1121,7 +1025,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1134,7 +1038,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="40.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="10.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="10.16"/>
@@ -1311,7 +1215,7 @@
       <c r="D12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -1322,7 +1226,7 @@
       </c>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" customFormat="false" ht="103.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="99.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9"/>
       <c r="B13" s="10" t="n">
         <v>2</v>
@@ -1333,14 +1237,14 @@
       <c r="D13" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H13" s="10"/>
     </row>
@@ -1350,41 +1254,41 @@
         <v>3</v>
       </c>
       <c r="C14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="E14" s="11" t="s">
         <v>43</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>44</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" customFormat="false" ht="171.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="165.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9"/>
       <c r="B15" s="10" t="n">
         <v>4</v>
       </c>
       <c r="C15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="E15" s="11" t="s">
         <v>46</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>47</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H15" s="10"/>
     </row>

--- a/acceptance_tests/2025-11-06-validation_matrix_1A.xlsx
+++ b/acceptance_tests/2025-11-06-validation_matrix_1A.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="Version Control" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Template" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="AT-DMA-001" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="AT-SENSOR-001" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="66">
   <si>
     <t xml:space="preserve">Version</t>
   </si>
@@ -55,25 +55,25 @@
   </si>
   <si>
     <t xml:space="preserve">Document Creation.
-Version control, Template and  AT-DMA-001 added</t>
+Version control, Template and  AT-SENSOR-001 added</t>
   </si>
   <si>
     <t xml:space="preserve">Subsystem</t>
   </si>
   <si>
-    <t xml:space="preserve">DMA</t>
+    <t xml:space="preserve">Sensor (AXI/DMA)</t>
   </si>
   <si>
     <t xml:space="preserve">Test Name</t>
   </si>
   <si>
-    <t xml:space="preserve">TP-AT-DMA-001</t>
+    <t xml:space="preserve">TP-AT-SENSOR-001</t>
   </si>
   <si>
     <t xml:space="preserve">Description / Objective</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify the correct operation of the DMA streaming path from the image sensor interface to DDR memory, ensuring frame integrity and continuous acquisition under nominal conditions.</t>
+    <t xml:space="preserve">Verify the end-to-end capture pipeline from the image sensor through AXI and DMA to DDR memory, including interrupt handling and logging. Future extensions include Ethernet frame transmission and host-side image reconstruction.</t>
   </si>
   <si>
     <t xml:space="preserve">HW Configuration</t>
@@ -109,97 +109,118 @@
     <t xml:space="preserve">Date (YYYY-MM-DD)</t>
   </si>
   <si>
-    <t xml:space="preserve">Step ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requirement ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step Description</t>
+    <t xml:space="preserve">Step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action</t>
   </si>
   <si>
     <t xml:space="preserve">Expected Result</t>
   </si>
   <si>
+    <t xml:space="preserve">Verifies</t>
+  </si>
+  <si>
     <t xml:space="preserve">Result (OK/FAIL)</t>
   </si>
   <si>
     <t xml:space="preserve">Evidence / Logs</t>
   </si>
   <si>
+    <t xml:space="preserve">Power on the board and open the UART console. Observe the boot sequence and system banner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UART shows startup messages including “System Boot” and test_sensor initialization banner.</t>
+  </si>
+  <si>
     <t xml:space="preserve">N/A</t>
   </si>
   <si>
-    <t xml:space="preserve">Power on the board
-Build and Run the baremetal app using Softconsole
-Confirm via UART log that the DMA test application starts:
-      ([DMA_TEST] Starting DMA streaming test...).
-Call the initialization API: 
-     DMA_init(); 
-     SENSOR_init(); 
-     DDR_init(); 
-     LOG_init();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Verify all return values are 0 (success).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20251105_DMA_001_log.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR-DMA-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Configure the DMA for continuous frame transfer mode: 
-     DMA_config(source = SENSOR_IF, destination = DDR, frame_size = 1280x720);
-Enable the image sensor output (SENSOR_start()).
-Enable DMA streaming (DMA_enable()).
-Wait for N = 10 frames to be captured.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR-DMA-002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check UART log for: 
-     [DMA_TEST] Frame #N transferred successfully 
-     [DMA_TEST] All frames stored in DDR
-Use the frame viewer on the host PC to visualize frames stored in DDR.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confirm that all frames are consistent and no data corruption or tearing is visible.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR-DMA-003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stop the DMA and sensor: 
-     DMA_stop(); 
-     SENSOR_stop();
-Save UART console output as 20251105_dma_test_log.txt.
-save Image 20251105_dma_frames_output_frame.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Verify all return values are 0 (success).
-Confirm all logs and images have been saved.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20251105_DMA_001_output_frame_1.png
-20251105_DMA_001_output_frame_2.png
-20251105_DMA_001_output_frame_3.png
-20251105_DMA_001_output_frame_4.png
-20251105_DMA_001_output_frame_5.png
-20251105_DMA_001_output_frame_6.png
-20251105_DMA_001_output_frame_7.png
-20251105_DMA_001_output_frame_8.png
-20251105_DMA_001_output_frame_9.png
-20251105_DMA_001_output_frame_10.png</t>
+    <t xml:space="preserve">20251105_SENSOR_log_001.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirm that the test application automatically initializes the sensor and DMA subsystem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UART log contains: [INFO] Sensor and DMA initialized successfully.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR-SENSOR-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observe the configuration of sensor acquisition parameters (exposure time).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UART log: [INFO] Camera exposure set to &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR-SENSOR-002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitor the start of the capture phase triggered by the application.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UART log: [INFO] Starting new image capture…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR-SENSOR-003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wait for completion of the DMA transfer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UART log shows: [INFO] DMA transfer complete within nominal time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR-SENSOR-004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review the interrupt handler output for anomalies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UART log shows no error entries; only: [INFO] IRQ Status: 0x00000001 (OP complete).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR-SENSOR-005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirm that the end-of-capture callback was executed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UART log: [INFO] Callback executed with status 0x00000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR-SENSOR-007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the stream control register was cleared automatically after capture.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UART log: [DEBUG] Stream control register cleared. (or memory read confirmation = 0).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR-SENSOR-006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observe Ethernet transmission sequence as image data is packetized.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UART log shows: [INFO] Chunk &lt;n&gt;/64 sent successfully repeated until completion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR-SENSOR-008, TR-SENSOR-009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On the host PC, ensure the frame receiver application runs and reconstructs the image.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Host console: “Frame received OK.” The displayed image matches the reference pattern without corruption.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR-SENSOR-008, TR-SENSOR-010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20251105_SENSOR_image_001.txt</t>
   </si>
 </sst>
 </file>
@@ -344,6 +365,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -353,15 +378,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -619,7 +640,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -756,26 +777,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="76.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="61.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="31.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="37.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="40.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="10.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="10.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -806,19 +826,19 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="24.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="24.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
@@ -894,28 +914,28 @@
       <c r="A9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="8" t="n">
+      <c r="B9" s="9" t="n">
         <v>45971</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="24.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="6" t="s">
         <v>28</v>
       </c>
@@ -938,60 +958,126 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="122.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10" t="n">
+    <row r="12" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" customFormat="false" ht="122.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10" t="n">
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" customFormat="false" ht="122.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10" t="n">
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" customFormat="false" ht="122.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10" t="n">
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" customFormat="false" ht="117.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9"/>
-    </row>
-    <row r="17" customFormat="false" ht="117.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9"/>
-    </row>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B1:H1"/>
@@ -1025,15 +1111,14 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="76.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="61.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="31.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="40.6"/>
@@ -1072,19 +1157,19 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="24.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="24.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
@@ -1160,28 +1245,28 @@
       <c r="A9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="8" t="n">
+      <c r="B9" s="9" t="n">
         <v>45971</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="24.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="6" t="s">
         <v>28</v>
       </c>
@@ -1204,12 +1289,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="154.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10" t="n">
+    <row r="12" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="11" t="s">
@@ -1218,42 +1303,38 @@
       <c r="E12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="11"/>
+      <c r="G12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" customFormat="false" ht="99.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="D13" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="E13" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="11"/>
+      <c r="G13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" customFormat="false" ht="79.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10" t="n">
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="11" t="s">
@@ -1262,20 +1343,18 @@
       <c r="E14" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="11"/>
+      <c r="G14" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" customFormat="false" ht="165.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10" t="n">
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="11" t="s">
         <v>44</v>
       </c>
       <c r="D15" s="11" t="s">
@@ -1284,14 +1363,130 @@
       <c r="E15" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="11"/>
+      <c r="G15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="10"/>
-    </row>
+      <c r="D16" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
